--- a/mips.xlsx
+++ b/mips.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="139">
   <si>
     <t>组号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -249,12 +249,312 @@
   <si>
     <t>SW_SP</t>
   </si>
+  <si>
+    <t>op</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>01001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>01000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>01100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>011</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11101</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>00010</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>00100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>00101</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>01100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>01100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11101</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>01101</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10011</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11110</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>01111</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11110</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>01100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>00001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11101</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>00110</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>00110</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>00110</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11011</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11010</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>imm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ry</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rz</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ry</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>imm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>imm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ry</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ry</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rz</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>01100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ry</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>01010</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>010</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>01011</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>imm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ry</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>imm00</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>imm11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>imm10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>imm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ry</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -399,8 +699,20 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -411,6 +723,36 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF99CCFF"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -519,7 +861,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -539,6 +881,30 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="29" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="3" borderId="0" xfId="29" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="4" borderId="0" xfId="29" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="4" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="5" borderId="0" xfId="29" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="6" borderId="0" xfId="29" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="7" borderId="0" xfId="29" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="30">
@@ -1111,10 +1477,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B33"/>
+  <dimension ref="A2:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8"/>
@@ -1124,247 +1490,706 @@
     <col min="3" max="16384" width="8.796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="15.6">
+    <row r="2" spans="1:10" ht="15.6">
       <c r="A2" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:10">
       <c r="A3" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="14.4">
+      <c r="C3" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14.4">
       <c r="A4" s="6">
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="14.4">
+      <c r="C4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:10" ht="14.4">
       <c r="A5" s="6">
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="14.4">
+      <c r="C5" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" ht="14.4">
       <c r="A6" s="6">
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="14.4">
+      <c r="C6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" ht="14.4">
       <c r="A7" s="6">
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="14.4">
+      <c r="C7" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" ht="14.4">
       <c r="A8" s="6">
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="14.4">
+      <c r="C8" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.4">
       <c r="A9" s="6">
         <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="14.4">
+      <c r="C9" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" ht="14.4">
       <c r="A10" s="6">
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="14.4">
+      <c r="C10" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" ht="14.4">
       <c r="A11" s="6">
         <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="14.4">
+      <c r="C11" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" ht="14.4">
       <c r="A12" s="6">
         <v>9</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="14.4">
+      <c r="C12" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" ht="14.4">
       <c r="A13" s="6">
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="14.4">
+      <c r="C13" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" ht="14.4">
       <c r="A14" s="6">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="14.4">
+      <c r="C14" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" ht="14.4">
       <c r="A15" s="6">
         <v>12</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="14.4">
+      <c r="C15" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" ht="14.4">
       <c r="A16" s="6">
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="14.4">
+      <c r="C16" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" ht="14.4">
       <c r="A17" s="6">
         <v>14</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="14.4">
+      <c r="C17" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="1:10" ht="14.4">
       <c r="A18" s="6">
         <v>15</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="14.4">
+      <c r="C18" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="1:10" ht="14.4">
       <c r="A19" s="6">
         <v>16</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="14.4">
+      <c r="C19" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" spans="1:10" ht="14.4">
       <c r="A20" s="6">
         <v>17</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="14.4">
+      <c r="C20" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="1:10" ht="14.4">
       <c r="A21" s="6">
         <v>18</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="14.4">
+      <c r="C21" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="1:10" ht="14.4">
       <c r="A22" s="6">
         <v>19</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="14.4">
+      <c r="C22" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+    </row>
+    <row r="23" spans="1:10" ht="14.4">
       <c r="A23" s="6">
         <v>20</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="14.4">
+      <c r="C23" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+    </row>
+    <row r="24" spans="1:10" ht="14.4">
       <c r="A24" s="6">
         <v>21</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="14.4">
+      <c r="C24" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25" spans="1:10" ht="14.4">
       <c r="A25" s="6">
         <v>22</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="14.4">
+      <c r="C25" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+    </row>
+    <row r="26" spans="1:10" ht="14.4">
       <c r="A26" s="6">
         <v>23</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="14.4">
+      <c r="C26" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+    </row>
+    <row r="27" spans="1:10" ht="14.4">
       <c r="A27" s="6">
         <v>24</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="14.4">
+      <c r="C27" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="1:10" ht="14.4">
       <c r="A28" s="6">
         <v>25</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="14.4">
+      <c r="C28" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" spans="1:10" ht="14.4">
       <c r="B29" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="14.4">
+      <c r="C29" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+    </row>
+    <row r="30" spans="1:10" ht="14.4">
       <c r="B30" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="14.4">
+      <c r="C30" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+    </row>
+    <row r="31" spans="1:10" ht="14.4">
       <c r="B31" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="14.4">
+      <c r="C31" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+    </row>
+    <row r="32" spans="1:10" ht="14.4">
       <c r="B32" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" ht="14.4">
+      <c r="C32" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+    </row>
+    <row r="33" spans="2:10" ht="14.4">
       <c r="B33" s="7" t="s">
         <v>35</v>
       </c>
+      <c r="C33" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/mips.xlsx
+++ b/mips.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="180">
   <si>
     <t>组号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -526,18 +526,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>imm00</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>imm11</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>imm10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>imm</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -547,6 +535,584 @@
   </si>
   <si>
     <t>00000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>访存</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>写回</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rx+imm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>rx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（执行值）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>imm 8位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>imm  4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>imm 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（执行值）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp+imm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>sp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（执行值）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rx+ry</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>rz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（执行值）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rx and ry</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rx-ry</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（执行值为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>则置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ih+0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>rx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（执行值）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc+0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>rx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（执行值）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rx+0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ih</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（执行值）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rx+0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0+0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rx or ry</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ry &lt;&lt; imm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>imm11 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位，为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时看作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ry &gt;&gt; imm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（算术）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rx-ry</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ry+0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>rx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（执行值）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-ry</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>rx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（执行值）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ry &gt;&gt; imm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（逻辑）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>rx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（执行值）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>imm10 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位，为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时看作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0+imm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>扩展）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp+imm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>imm00 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位，为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时看作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄存器组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ih</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -712,7 +1278,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -752,6 +1318,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,7 +1433,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -879,32 +1451,38 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="29" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="29" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="3" borderId="0" xfId="29" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="4" borderId="0" xfId="29" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="4" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="5" borderId="0" xfId="29" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="6" borderId="0" xfId="29" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="7" borderId="0" xfId="29" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="29" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="29" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="29" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="3" borderId="0" xfId="29" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="4" borderId="0" xfId="29" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="4" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="5" borderId="0" xfId="29" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="6" borderId="0" xfId="29" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="7" borderId="0" xfId="29" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="30">
@@ -1263,7 +1841,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="9">
+      <c r="A2" s="19">
         <v>201</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1272,21 +1850,21 @@
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="9"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="9">
+      <c r="A5" s="19">
         <v>202</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1295,21 +1873,21 @@
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="9"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="9"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="9">
+      <c r="A8" s="19">
         <v>203</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1318,21 +1896,21 @@
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="9"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="9"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="9">
+      <c r="A11" s="19">
         <v>204</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1341,21 +1919,21 @@
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="9"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="9"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="9">
+      <c r="A14" s="19">
         <v>205</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1364,21 +1942,21 @@
       <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="9"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="9"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="9">
+      <c r="A17" s="19">
         <v>206</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1387,7 +1965,7 @@
       <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="9"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="4" t="s">
         <v>2</v>
       </c>
@@ -1396,7 +1974,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="9"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="4" t="s">
         <v>4</v>
       </c>
@@ -1405,7 +1983,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="9">
+      <c r="A20" s="19">
         <v>207</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1414,14 +1992,14 @@
       <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="9"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="9"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="5" t="s">
         <v>21</v>
       </c>
@@ -1430,7 +2008,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="9">
+      <c r="A23" s="19">
         <v>208</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1441,7 +2019,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="9"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="2" t="s">
         <v>26</v>
       </c>
@@ -1450,7 +2028,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="9"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="2" t="s">
         <v>28</v>
       </c>
@@ -1477,10 +2055,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J33"/>
+  <dimension ref="A2:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8"/>
@@ -1490,12 +2068,12 @@
     <col min="3" max="16384" width="8.796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="15.6">
+    <row r="2" spans="1:11" ht="15.6">
       <c r="A2" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11" ht="14.4">
       <c r="A3" s="6" t="s">
         <v>37</v>
       </c>
@@ -1505,687 +2083,810 @@
       <c r="C3" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="14.4">
+      <c r="I3" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="14.4">
       <c r="A4" s="6">
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-    </row>
-    <row r="5" spans="1:10" ht="14.4">
+      <c r="E4" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="14.4">
       <c r="A5" s="6">
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="6" spans="1:10" ht="14.4">
+      <c r="G5" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="14.4">
       <c r="A6" s="6">
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-    </row>
-    <row r="7" spans="1:10" ht="14.4">
+      <c r="E6" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="14.4">
       <c r="A7" s="6">
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="1:10" ht="14.4">
+      <c r="H7" s="9"/>
+      <c r="I7" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="14.4">
       <c r="A8" s="6">
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" spans="1:10" ht="14.4">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14.4">
       <c r="A9" s="6">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" ht="14.4">
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:11" ht="14.4">
       <c r="A10" s="6">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="11" spans="1:10" ht="14.4">
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:11" ht="14.4">
       <c r="A11" s="6">
         <v>8</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="12" spans="1:10" ht="14.4">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:11" ht="14.4">
       <c r="A12" s="6">
         <v>9</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-    </row>
-    <row r="13" spans="1:10" ht="14.4">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:11" ht="14.4">
       <c r="A13" s="6">
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-    </row>
-    <row r="14" spans="1:10" ht="14.4">
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="14.4">
       <c r="A14" s="6">
         <v>11</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="1:10" ht="14.4">
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:11" ht="14.4">
       <c r="A15" s="6">
         <v>12</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-    </row>
-    <row r="16" spans="1:10" ht="14.4">
+      <c r="E15" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="14.4">
       <c r="A16" s="6">
         <v>13</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-    </row>
-    <row r="17" spans="1:10" ht="14.4">
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:11" ht="14.4">
       <c r="A17" s="6">
         <v>14</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-    </row>
-    <row r="18" spans="1:10" ht="14.4">
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="1:11" ht="14.4">
       <c r="A18" s="6">
         <v>15</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-    </row>
-    <row r="19" spans="1:10" ht="14.4">
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="J18" s="9"/>
+      <c r="K18" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="14.4">
       <c r="A19" s="6">
         <v>16</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-    </row>
-    <row r="20" spans="1:10" ht="14.4">
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="J19" s="9"/>
+      <c r="K19" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="14.4">
       <c r="A20" s="6">
         <v>17</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-    </row>
-    <row r="21" spans="1:10" ht="14.4">
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="J20" s="9"/>
+      <c r="K20" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="14.4">
       <c r="A21" s="6">
         <v>18</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-    </row>
-    <row r="22" spans="1:10" ht="14.4">
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="J21" s="9"/>
+      <c r="K21" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="14.4">
       <c r="A22" s="6">
         <v>19</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-    </row>
-    <row r="23" spans="1:10" ht="14.4">
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="1:11" ht="14.4">
       <c r="A23" s="6">
         <v>20</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-    </row>
-    <row r="24" spans="1:10" ht="14.4">
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="J23" s="9"/>
+      <c r="K23" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="14.4">
       <c r="A24" s="6">
         <v>21</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="F24" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-    </row>
-    <row r="25" spans="1:10" ht="14.4">
+      <c r="F24" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="J24" s="9"/>
+      <c r="K24" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="14.4">
       <c r="A25" s="6">
         <v>22</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F25" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-    </row>
-    <row r="26" spans="1:10" ht="14.4">
+      <c r="F25" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="J25" s="9"/>
+      <c r="K25" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="14.4">
       <c r="A26" s="6">
         <v>23</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-    </row>
-    <row r="27" spans="1:10" ht="14.4">
+      <c r="H26" s="9"/>
+      <c r="I26" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="J26" s="9"/>
+      <c r="K26" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="14.4">
       <c r="A27" s="6">
         <v>24</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F27" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-    </row>
-    <row r="28" spans="1:10" ht="14.4">
+      <c r="F27" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+    </row>
+    <row r="28" spans="1:11" ht="14.4">
       <c r="A28" s="6">
         <v>25</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-    </row>
-    <row r="29" spans="1:10" ht="14.4">
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+    </row>
+    <row r="29" spans="1:11" ht="14.4">
       <c r="B29" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-    </row>
-    <row r="30" spans="1:10" ht="14.4">
+      <c r="E29" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="J29" s="9"/>
+      <c r="K29" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="14.4">
       <c r="B30" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-    </row>
-    <row r="31" spans="1:10" ht="14.4">
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="J30" s="9"/>
+      <c r="K30" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="14.4">
       <c r="B31" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="F31" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-    </row>
-    <row r="32" spans="1:10" ht="14.4">
-      <c r="B32" s="7" t="s">
+      <c r="F31" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="J31" s="9"/>
+      <c r="K31" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="14.4">
+      <c r="B32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-    </row>
-    <row r="33" spans="2:10" ht="14.4">
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+    </row>
+    <row r="33" spans="1:11" ht="14.4">
       <c r="B33" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="J33" s="9"/>
+      <c r="K33" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="14.4">
+      <c r="A38" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>179</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/mips.xlsx
+++ b/mips.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="218">
   <si>
     <t>组号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1113,6 +1113,274 @@
   </si>
   <si>
     <t>T</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>译码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>00010</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jr</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>11101</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc=rx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转条件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEQZ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BNEZ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTEQZ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTNEZ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rx=0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rx!=0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t=0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>t!=0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>00100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>00101</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>imm 11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>imm 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>imm 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>imm 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>01100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>01100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>imm 8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc=pc+1+imm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pc=pc+1+imm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无访存</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无写回</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>变pc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在id处先算出newpc，可以预测一波是否跳转。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>exe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>处，如果发现确实跳转，什么事都不做</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>exe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>处，如果发现没有跳转，什么事都不做</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1278,7 +1546,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1324,6 +1592,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1433,7 +1713,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1446,9 +1726,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="29" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="29" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="29" applyNumberFormat="1">
@@ -1483,6 +1760,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="29" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="29" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="29" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="30">
@@ -1841,7 +2127,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="19">
+      <c r="A2" s="18">
         <v>201</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1850,21 +2136,21 @@
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="19"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="19"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="19">
+      <c r="A5" s="18">
         <v>202</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1873,21 +2159,21 @@
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="19"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="19"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="19">
+      <c r="A8" s="18">
         <v>203</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1896,21 +2182,21 @@
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="19"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="19"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="19">
+      <c r="A11" s="18">
         <v>204</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1919,21 +2205,21 @@
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="19"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="19"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="19">
+      <c r="A14" s="18">
         <v>205</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1942,21 +2228,21 @@
       <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="19"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="19"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="19">
+      <c r="A17" s="18">
         <v>206</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1965,7 +2251,7 @@
       <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="19"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="4" t="s">
         <v>2</v>
       </c>
@@ -1974,7 +2260,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="19"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="4" t="s">
         <v>4</v>
       </c>
@@ -1983,7 +2269,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="19">
+      <c r="A20" s="18">
         <v>207</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1992,14 +2278,14 @@
       <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="19"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="5"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="19"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="5" t="s">
         <v>21</v>
       </c>
@@ -2008,7 +2294,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="19">
+      <c r="A23" s="18">
         <v>208</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2019,7 +2305,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="19"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="2" t="s">
         <v>26</v>
       </c>
@@ -2028,7 +2314,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="19"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="2" t="s">
         <v>28</v>
       </c>
@@ -2055,10 +2341,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K38"/>
+  <dimension ref="A2:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8"/>
@@ -2083,13 +2369,16 @@
       <c r="C3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="H3" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="16" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2097,25 +2386,25 @@
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="J4" s="9"/>
+      <c r="J4" s="8"/>
       <c r="K4" s="6" t="s">
         <v>140</v>
       </c>
@@ -2124,29 +2413,29 @@
       <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9" t="s">
+      <c r="H5" s="8"/>
+      <c r="I5" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="J5" s="9"/>
+      <c r="J5" s="8"/>
       <c r="K5" s="6" t="s">
         <v>144</v>
       </c>
@@ -2155,25 +2444,25 @@
       <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="J6" s="9"/>
+      <c r="J6" s="8"/>
       <c r="K6" s="6" t="s">
         <v>146</v>
       </c>
@@ -2182,29 +2471,29 @@
       <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9" t="s">
+      <c r="H7" s="8"/>
+      <c r="I7" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="J7" s="9"/>
+      <c r="J7" s="8"/>
       <c r="K7" s="6" t="s">
         <v>148</v>
       </c>
@@ -2213,27 +2502,27 @@
       <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9" t="s">
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="J8" s="9"/>
+      <c r="J8" s="8"/>
       <c r="K8" s="6" t="s">
         <v>140</v>
       </c>
@@ -2242,113 +2531,113 @@
       <c r="A9" s="6">
         <v>6</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:11" ht="14.4">
       <c r="A10" s="6">
         <v>7</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:11" ht="14.4">
       <c r="A11" s="6">
         <v>8</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:11" ht="14.4">
       <c r="A12" s="6">
         <v>9</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:11" ht="14.4">
       <c r="A13" s="6">
         <v>10</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9" t="s">
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="J13" s="9"/>
+      <c r="J13" s="8"/>
       <c r="K13" s="6" t="s">
         <v>151</v>
       </c>
@@ -2357,49 +2646,49 @@
       <c r="A14" s="6">
         <v>11</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:11" ht="14.4">
       <c r="A15" s="6">
         <v>12</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9" t="s">
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="J15" s="9"/>
+      <c r="J15" s="8"/>
       <c r="K15" s="6" t="s">
         <v>140</v>
       </c>
@@ -2408,71 +2697,71 @@
       <c r="A16" s="6">
         <v>13</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:11" ht="14.4">
       <c r="A17" s="6">
         <v>14</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:11" ht="14.4">
       <c r="A18" s="6">
         <v>15</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9" t="s">
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="J18" s="9"/>
+      <c r="J18" s="8"/>
       <c r="K18" s="6" t="s">
         <v>153</v>
       </c>
@@ -2481,27 +2770,27 @@
       <c r="A19" s="6">
         <v>16</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9" t="s">
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="J19" s="9"/>
+      <c r="J19" s="8"/>
       <c r="K19" s="6" t="s">
         <v>155</v>
       </c>
@@ -2510,25 +2799,25 @@
       <c r="A20" s="6">
         <v>17</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9" t="s">
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="J20" s="9"/>
+      <c r="J20" s="8"/>
       <c r="K20" s="6" t="s">
         <v>157</v>
       </c>
@@ -2537,27 +2826,27 @@
       <c r="A21" s="6">
         <v>18</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9" t="s">
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="J21" s="9"/>
+      <c r="J21" s="8"/>
       <c r="K21" s="6" t="s">
         <v>146</v>
       </c>
@@ -2566,51 +2855,51 @@
       <c r="A22" s="6">
         <v>19</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9" t="s">
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="J22" s="9"/>
+      <c r="J22" s="8"/>
     </row>
     <row r="23" spans="1:11" ht="14.4">
       <c r="A23" s="6">
         <v>20</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9" t="s">
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="J23" s="9"/>
+      <c r="J23" s="8"/>
       <c r="K23" s="6" t="s">
         <v>153</v>
       </c>
@@ -2619,27 +2908,27 @@
       <c r="A24" s="6">
         <v>21</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9" t="s">
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="J24" s="9"/>
+      <c r="J24" s="8"/>
       <c r="K24" s="6" t="s">
         <v>153</v>
       </c>
@@ -2648,27 +2937,27 @@
       <c r="A25" s="6">
         <v>22</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9" t="s">
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="J25" s="9"/>
+      <c r="J25" s="8"/>
       <c r="K25" s="6" t="s">
         <v>153</v>
       </c>
@@ -2677,29 +2966,29 @@
       <c r="A26" s="6">
         <v>23</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9" t="s">
+      <c r="H26" s="8"/>
+      <c r="I26" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="J26" s="9"/>
+      <c r="J26" s="8"/>
       <c r="K26" s="6" t="s">
         <v>148</v>
       </c>
@@ -2708,171 +2997,174 @@
       <c r="A27" s="6">
         <v>24</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
     </row>
     <row r="28" spans="1:11" ht="14.4">
       <c r="A28" s="6">
         <v>25</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
     </row>
     <row r="29" spans="1:11" ht="14.4">
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9" t="s">
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="J29" s="9"/>
+      <c r="J29" s="8"/>
       <c r="K29" s="6" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="14.4">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9" t="s">
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="J30" s="9"/>
+      <c r="J30" s="8"/>
       <c r="K30" s="6" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="14.4">
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9" t="s">
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="J31" s="9"/>
+      <c r="J31" s="8"/>
       <c r="K31" s="6" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="14.4">
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
     </row>
     <row r="33" spans="1:11" ht="14.4">
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9" t="s">
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="J33" s="9"/>
+      <c r="J33" s="8"/>
       <c r="K33" s="6" t="s">
         <v>140</v>
       </c>
     </row>
+    <row r="34" spans="1:11">
+      <c r="B34" s="21"/>
+    </row>
     <row r="38" spans="1:11" ht="14.4">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="16" t="s">
         <v>175</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -2887,6 +3179,245 @@
       <c r="E38" s="6" t="s">
         <v>179</v>
       </c>
+    </row>
+    <row r="39" spans="1:11" ht="14.4">
+      <c r="H39" s="16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="14.4">
+      <c r="A40" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="G40" s="8"/>
+      <c r="H40" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="B41" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="G41" s="8"/>
+      <c r="H41" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="14.4">
+      <c r="A42" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G42" s="8"/>
+      <c r="H42" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="14.4">
+      <c r="A43" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G43" s="8"/>
+      <c r="H43" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="14.4">
+      <c r="A44" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G44" s="8"/>
+      <c r="H44" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="14.4">
+      <c r="B45" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G45" s="8"/>
+      <c r="H45" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="1:11" ht="14.4">
+      <c r="A47" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" spans="1:11" ht="14.4">
+      <c r="A48" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" spans="1:7" ht="14.4">
+      <c r="A49" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
